--- a/medicine/Enfance/Bambi,_l'histoire_d'une_vie_dans_les_bois/Bambi,_l'histoire_d'une_vie_dans_les_bois.xlsx
+++ b/medicine/Enfance/Bambi,_l'histoire_d'une_vie_dans_les_bois/Bambi,_l'histoire_d'une_vie_dans_les_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bambi, l'histoire d'une vie dans les bois (titre original : Bambi: Eine Lebensgeschichte aus dem Walde) est un roman pour la jeunesse autrichien de Felix Salten, paru en 1923. Succès littéraire[1], il a inspiré les longs-métrages d'animation des studios Disney : Bambi (1942) et Bambi 2 (2006).
+Bambi, l'histoire d'une vie dans les bois (titre original : Bambi: Eine Lebensgeschichte aus dem Walde) est un roman pour la jeunesse autrichien de Felix Salten, paru en 1923. Succès littéraire, il a inspiré les longs-métrages d'animation des studios Disney : Bambi (1942) et Bambi 2 (2006).
 L'auteur a écrit une suite en 1939 : Bambi : Les Enfants de Bambi (Bambis Kinder: Eine Familie im Walde). 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est lors d'un voyage dans les Alpes que, charmé par la nature environnante, Felix Salten (Siegmund Salzmann de son vrai nom) imagine l'histoire d'un chevreuil baptisé « Bambi », nom formé d'après le mot italien bambino, qui signifie à la fois « bébé » et « enfant ».
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un chevrillard[1] nommé « Bambi » coule des jours heureux. Mais un jour qu'il s'aventure en terrain découvert avec sa mère, des chasseurs les séparent à tout jamais. Dès lors, Bambi ne peut plus apprendre à survivre qu'auprès de son père.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chevrillard nommé « Bambi » coule des jours heureux. Mais un jour qu'il s'aventure en terrain découvert avec sa mère, des chasseurs les séparent à tout jamais. Dès lors, Bambi ne peut plus apprendre à survivre qu'auprès de son père.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +591,15 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « C'est un voyage dans les Alpes qui aurait inspiré Félix Salten, pour ce récit initiatique suivant les pas d'un petit faon nommé Bambi (de l'italien pour « enfant », « bambino »), de sa naissance à sa découverte de la dureté du monde. »
-— Article du Point[2] et celui du Figaro[1].
-Le livre est interdit en 1936 par les autorités du régime nazi qui considéraient que son histoire était une allégorie du sort des Juifs d’Europe[3],[4]. La plupart des exemplaires existant à l'époque sont alors brûlés[5].
-En exil en Suisse pendant la Seconde Guerre mondiale, Felix Salten écrit une suite : Bambi's Children, avec des illustrations d'Erna Pinner[1],[6].
+— Article du Point et celui du Figaro.
+Le livre est interdit en 1936 par les autorités du régime nazi qui considéraient que son histoire était une allégorie du sort des Juifs d’Europe,. La plupart des exemplaires existant à l'époque sont alors brûlés.
+En exil en Suisse pendant la Seconde Guerre mondiale, Felix Salten écrit une suite : Bambi's Children, avec des illustrations d'Erna Pinner,.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +628,18 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1928 : Bambi, Les Œuvres Libres, no 86, août 1928, Recueil littéraire. Paris : Arthème Fayard et Cie Éditeurs[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1928 : Bambi, Les Œuvres Libres, no 86, août 1928, Recueil littéraire. Paris : Arthème Fayard et Cie Éditeurs.
 1929 : Bambi le cerf Une vie dans les bois. Roman traduit de l’allemand par Henri Bloch. Dessins d'Henri Camus. « Collection Maïa », Paris : Stock, Delamain et Boutelleau.
 1956 : Bambi le cerf. Illustrations d'Henry Blanc, d’après le film de Walt Disney. Paris : Hachette.
 1979 : Bambi, le cerf. Illustrations de Pierre Probst. Paris : Hachette.  (ISBN 2-01-003229-2)
 2016 : Bambi : L’histoire d’une vie dans les bois. Traduit de l'allemand par Nicolas Waquet avec une préface de Maxime Rovère ; Paris : Éditions Payot et Rivages.  (ISBN 978-2-743-63647-0)
 2020 : Bambi, l'histoire d'une vie dans les bois, Felix Salten, illustrations de Benjamin Lacombe, traduit de l'allemand (Autriche) par Nicolas Waquet, 176 p.  À partir de 9 ans.
 2020 : Bambi, une vie dans les bois, Felix Salten, illustrations de Phillippe Jalbert ; Gautier-Languereau. À partir de 5 ans.
-2023 : Bambi. La véritable histoire, Felix Salten, adapté par Michel Larrieu, dessins de Michaël Cailloux, Éditions Delachaux et Niestlé[8]. À partir de 9 ans.</t>
+2023 : Bambi. La véritable histoire, Felix Salten, adapté par Michel Larrieu, dessins de Michaël Cailloux, Éditions Delachaux et Niestlé. À partir de 9 ans.</t>
         </is>
       </c>
     </row>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bambi,_l%27histoire_d%27une_vie_dans_les_bois</t>
+          <t>Bambi,_l'histoire_d'une_vie_dans_les_bois</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Adaptations à l'écran</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1942 : Bambi, film de Walt Disney Pictures
 1985 : Detstvo Bambi, film soviétique
